--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5186">
   <si>
     <t>translation_group</t>
   </si>
@@ -15529,12 +15529,6 @@
   </si>
   <si>
     <t xml:space="preserve"> notifikasi</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15921,17 +15915,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54578,18 +54572,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5170</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5171</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54599,10 +54585,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="D2763" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54613,10 +54599,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="D2764" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54627,10 +54613,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="D2765" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54641,10 +54627,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="D2766" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54655,10 +54641,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="D2767" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54669,10 +54655,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="D2768" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54683,10 +54669,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="D2769" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54725,11 +54711,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="D2772" t="s">
-        <v>5187</v>
-      </c>
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5863">
   <si>
     <t>translation_group</t>
   </si>
@@ -10061,10 +10061,10 @@
     <t>Pengaturan Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
-  </si>
-  <si>
-    <t>Isi kolom untuk hasil maksimal saat menemukan website Anda di mesin pencari.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
+  </si>
+  <si>
+    <t>Isi kolom untuk hasil yang maksimal saat menemukan website Anda di mesin pencari.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17011,6 +17011,613 @@
   </si>
   <si>
     <t>Penyedia surat</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Selamat datang di Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Gunakan Microweber untuk membangun situs web, toko online, atau blog Anda.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Buat dan edit konten, jual online, kelola pesanan dan klien.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Keranjang yang ditinggalkan</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Anda menggunakan template ini.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Perubahan tersebut hanya akan mempengaruhi halaman saat ini.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Izinkan beberapa template</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Jika Anda mengizinkan banyak templat, Anda akan dapat menggunakan templat yang berbeda saat Anda membuat halaman baru.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Pengaturan situs web email sistem</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Mengirim pesan yang terkait dengan pendaftaran baru, pengaturan ulang kata sandi, dan fungsi sistem lainnya.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Dari alamat email</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Nama Situs Anda</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Pengaturan penyedia email umum</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Siapkan penyedia email Anda.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Penyedia email umum akan mengirimkan semua pesan yang terkait dengan situs web. Termasuk pesan sistem dan pesan formulir kontak.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo Situs Web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Pilih logo untuk situs web Anda.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Unggah logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Situs web Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Mengubah bahasa default ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Kosongkan cache ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Instal Modul Multilanguage</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Pengguna dapat mendaftar dengan email sementara seperti - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Daftarkan pengguna dapat secara otomatis menerima email otomatis dari Anda. Lihat pengaturan dan posting pesan Anda.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Kirim email tentang pendaftaran pengguna baru ke pengguna admin</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin administrator menerima email saat pengguna baru terdaftar?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber adalah pembuat situs web dan CMS seret dan lepas sumber terbuka gratis. Itu di bawah lisensi MIT dan kami menggunakan kerangka PHP Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Sebuah Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Pengiriman ke alamat</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Ambil dari alamat</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Pengaturan global</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrasi Email</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Anda tidak memiliki e-mail sistem dan pengaturan smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Atur pengaturan sistem Anda di sini.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Pengaturan formulir kontak global</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opsi pengiriman email</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Pengirim global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Gunakan pengaturan pengirim kustom</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Gunakan pengaturan pengirim kustom untuk formulir kontak global.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Secara default kami akan menggunakan pengaturan email sistem situs web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Anda dapat mengubah pengaturan email sistem di sini.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Penerima Global</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Kirim data formulir kontak ke penerima global saat dikirimkan</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Ke alamat email</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Alamat email penerima dipisahkan dengan koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Hubungi penyedia hosting Anda untuk mengaktifkan ekstensi SOAP PHP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elemen</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 bulan yang lalu</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Hapus favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Adat</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Linimasa</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Label putih WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Template modul telah berubah</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versi konten</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Hapus Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Tata letak dan elemen default</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Daftar Panah</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Daftar yang Dicentang</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Teks Latar Belakang</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Judul dengan Teks</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon dengan Teks</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dua Kolom Teks</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dua kolom teks dengan ikon dan judul</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Gambar dengan Judul dan Teks</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Teks dengan Gambar dan Judul</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktifkan komentar</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Pengaturan captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atur preferensi captcha Anda dari </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Pengaturan formulir kontak saat ini</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nama formulir kontak</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Apa nama formulir kontak ini?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Kirim data formulir kontak ke penerima kustom saat dikirimkan</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gunakan pengaturan penerima kustom untuk formulir kontak saat ini.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Secara default kami akan menggunakan pengaturan global formulir kontak.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Anda dapat mengubah pengaturan global formulir kontak di sini.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Balas otomatis pesan ke pengguna</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktifkan pesan tanggapan otomatis untuk pengguna</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Izinkan pengguna menerima "Email terima kasih setelah berlangganan".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Subjek tanggapan otomatis</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Pesan tanggapan otomatis</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Email balasan otomatis dikirim kembali ke pengguna</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Jawab otomatis pengirim kustom</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gunakan pengaturan pengirim kustom untuk formulir kontak saat ini.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Balas otomatis dari alamat email</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Respon otomatis dari nama</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Balas email secara otomatis</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Ketika pengguna menerima pesan tanggapan otomatis, mereka dapat membalas kembali untuk membalas email.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Balas otomatis lampiran email</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Jika Anda ingin melampirkan gambar, Anda harus mengunggahnya ke galeri dari 'Tambahkan media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Anda belum memiliki postingan apa pun</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Buat postingan pertama Anda sekarang.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Buat Postingan</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Cara menulis deskripsi produk yang menjual
+                                                    Salah satu hal terbaik yang dapat Anda lakukan untuk membuat toko Anda sukses adalah menginvestasikan waktu untuk menulis deskripsi produk yang bagus. Anda ingin memberikan informasi rinci namun ringkas yang akan menarik calon pelanggan untuk membeli.
+                                                    Berpikirlah seperti konsumen
+                                                    Pikirkan tentang apa yang ingin Anda ketahui sebagai konsumen, kemudian sertakan fitur tersebut dalam deskripsi Anda. Untuk pakaian: bahan dan fit. Untuk makanan: bahan dan cara menyiapkannya. Peluru adalah teman Anda saat mencantumkan fitur
+                                                   - coba untuk
+                                                            batasi masing-masing hingga 5-8 kata.</t>
   </si>
 </sst>
 </file>
@@ -17349,7 +17956,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67657,6 +68264,1757 @@
         <v>5663</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5664</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5665</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5666</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5667</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5668</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5669</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5670</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5680</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4906</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6152">
   <si>
     <t>translation_group</t>
   </si>
@@ -17618,6 +17618,873 @@
                                                     Pikirkan tentang apa yang ingin Anda ketahui sebagai konsumen, kemudian sertakan fitur tersebut dalam deskripsi Anda. Untuk pakaian: bahan dan fit. Untuk makanan: bahan dan cara menyiapkannya. Peluru adalah teman Anda saat mencantumkan fitur
                                                    - coba untuk
                                                             batasi masing-masing hingga 5-8 kata.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>bahasa admin</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Membatasi</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor Kode</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Judul 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Judul 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Judul 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Judul 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Judul 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Judul 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Judul 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Judul 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>blok teks</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blok teks 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blok teks 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blok teks 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blok teks 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blok teks 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blok teks 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blok teks 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blok teks 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blok teks 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blok teks 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blok teks 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blok teks 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blok teks 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blok teks 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blok teks 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>kisi-kisi</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - kulit-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - kulit-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - kulit-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - kulit-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - kulit-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>catatan kaki</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Catatan kaki 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Catatan kaki 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Footer 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Catatan kaki 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>lainnya</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Harga 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Tata letak default</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Tidak Ada Konten Di Sini</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Bidang khusus disimpan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bidang yang ada</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Pilih dari bidang Anda yang ada di bawah ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tambahkan bidang baru</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tambahkan bidang khusus baru dari daftar di bawah</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Bidang Anda</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Daftar bidang khusus yang Anda tambahkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulangi secara vertikal </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Keluarga Font</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Hamparan</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Modus campuran</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Wadah</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Jenis wadah</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>animasi</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Memuat ulang gaya</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Tautan ke</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paket pratinjau</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Menggunakan</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Saat ini</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Susun ulang</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Pengalihan Peramban</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasi</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Pembaruan Mandiri</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Anda memerlukan kunci lisensi untuk menginstal paket ini</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Paket ini premium dan Anda harus memiliki kunci lisensi untuk menginstalnya</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Anda memerlukan kunci lisensi</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lisensi diaktifkan</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Memuat ulang halaman</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lisensi tidak diaktifkan</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Pembaruan sistem</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Periksa pembaruan sistem</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Kembali ke daftar</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategori harus memiliki nama</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Apakah kategori disembunyikan?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Jika Anda menyetel ini ke YA, kategori ini akan disembunyikan dari situs web</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Menyebutkan</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Keranjang Anda kosong.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Hasil ditemukan</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Jika Anda memilih Persen dari kolom pilih, maka akan dihitung secara otomatis dari Harga dan harga Penawaran produk.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>أضف منع</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Lanjutkan ke pembayaran</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Λحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Menampilkan</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>hasil</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Judul Halaman - Breadcrumb Kanan</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Judul Halaman - Breadcrumb Kiri</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Syarat Penggunaan</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Pengiriman dan pengembalian</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>sekitar 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Tentang 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Tentang 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Rumah 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Rumah 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Anda harus mengklik tombol terapkan template untuk mengubah template Anda</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Cari berdasarkan kriteria</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Tanggal dari</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Atur pesanan dari tanggal</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Tanggal ke</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Tetapkan pesanan hingga saat ini</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Jumlah pesanan dari</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Tunjukkan pesanan dengan jumlah minimum</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Jumlah pesanan ke</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Tunjukkan pesanan dengan jumlah maksimum</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Cari berdasarkan produk...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Cari berdasarkan produk</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Status pembayaran</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Pencarian gratis melalui telepon, nama, email dll...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Kirimkan kriteria ini</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Setel ulang filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Ekspor semua</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Pilih penyortiran</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Tanggal pemesanan</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Baru &gt; Lama]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Lama &gt; Baru]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Tinggi &gt; Rendah]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Rendah &gt; Tinggi]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>terjemahan dari modul multibahasa telah ditemukan di database Anda.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Peringatan! Mengubah bahasa default dapat merusak terjemahan di situs Anda.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Apakah Anda yakin ingin melanjutkan?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Peringatan! Perubahan bahasa default mungkin akan merusak situs Anda.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Rincian pengiriman</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Jenis pengiriman</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>pesanan belum selesai</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>pesanan selesai</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Dibuat di</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lihat sekilas </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Ganti nilai bahasa</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Terjemahan diimpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjemahan tidak ditemukan dalam database. Apakah Anda ingin mengimpor terjemahan? </t>
   </si>
 </sst>
 </file>
@@ -17641,10 +18508,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17655,7 +18519,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17956,7 +18820,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70018,8 +70882,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5323</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5325</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5327</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5329</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>4549</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6032</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6043</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6043</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6080</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70031,5 +73529,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/id_ID.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5969">
   <si>
     <t>translation_group</t>
   </si>
@@ -10064,7 +10064,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Isi kolom untuk hasil yang maksimal saat menemukan website Anda di mesin pencari.</t>
+    <t>Isi kolom tersebut untuk hasil maksimal saat menemukan website Anda di mesin pencari.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17037,19 +17037,16 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Keranjang yang ditinggalkan</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Anda menggunakan template ini.</t>
+    <t>Anda menggunakan templat ini.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Perubahan tersebut hanya akan mempengaruhi halaman saat ini.</t>
+    <t>Perubahan hanya akan memengaruhi halaman saat ini.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -17061,7 +17058,7 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Jika Anda mengizinkan banyak templat, Anda akan dapat menggunakan templat yang berbeda saat Anda membuat halaman baru.</t>
+    <t>Jika Anda mengizinkan beberapa template, Anda akan dapat menggunakan template yang berbeda saat membuat halaman baru.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17073,7 +17070,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Mengirim pesan yang terkait dengan pendaftaran baru, pengaturan ulang kata sandi, dan fungsi sistem lainnya.</t>
+    <t>Kirim pesan terkait pendaftaran baru, pengaturan ulang kata sandi, dan fungsi sistem lainnya.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17085,7 +17082,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Ex. Nama Situs Anda</t>
+    <t>Mantan. Nama Situs Web Anda</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17109,7 +17106,7 @@
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo Situs Web</t>
+    <t>Logo situs web</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17127,37 +17124,37 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Situs web Favicon</t>
+    <t>Favicon situs web</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Mengubah bahasa default ..</t>
+    <t>Mengubah bahasa default..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Kosongkan cache ..</t>
+    <t>Hapus cache..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Instal Modul Multilanguage</t>
+    <t>Instal Modul Multibahasa</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Pengguna dapat mendaftar dengan email sementara seperti - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Pengguna dapat mendaftar dengan email sementara seperti - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Daftarkan pengguna dapat secara otomatis menerima email otomatis dari Anda. Lihat pengaturan dan posting pesan Anda.</t>
+    <t>Daftar pengguna dapat secara otomatis menerima email otomatis dari Anda. Lihat pengaturan dan poskan pesan Anda.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
@@ -17175,13 +17172,13 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber adalah pembuat situs web dan CMS seret dan lepas sumber terbuka gratis. Itu di bawah lisensi MIT dan kami menggunakan kerangka PHP Laravel</t>
+    <t>Microweber adalah pembuat situs web seret dan lepas sumber terbuka gratis dan CMS. Itu di bawah lisensi MIT dan kami menggunakan framework Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>Sebuah Slider</t>
+    <t>Sebuah Penggeser</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -17193,7 +17190,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Ambil dari alamat</t>
+    <t>Penjemputan dari alamat</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17211,13 +17208,13 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Anda tidak memiliki e-mail sistem dan pengaturan smtp.</t>
+    <t>Anda tidak memiliki pengaturan email dan smtp sistem.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Atur pengaturan sistem Anda di sini.</t>
+    <t>Siapkan pengaturan sistem Anda di sini.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17235,19 +17232,19 @@
     <t>Global sender</t>
   </si>
   <si>
-    <t>Pengirim global</t>
+    <t>Pengirim dunia</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Gunakan pengaturan pengirim kustom</t>
+    <t>Gunakan pengaturan pengirim khusus</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Gunakan pengaturan pengirim kustom untuk formulir kontak global.</t>
+    <t>Gunakan pengaturan pengirim khusus untuk formulir kontak global.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
@@ -17289,7 +17286,7 @@
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Hubungi penyedia hosting Anda untuk mengaktifkan ekstensi SOAP PHP.</t>
+    <t>Hubungi penyedia hosting Anda untuk mengaktifkan ekstensi PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17316,7 +17313,7 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Adat</t>
+    <t>Kebiasaan</t>
   </si>
   <si>
     <t>bxSlider</t>
@@ -17325,6 +17322,9 @@
     <t>Schema.org</t>
   </si>
   <si>
+    <t>Skema.org</t>
+  </si>
+  <si>
     <t>ProductsV2</t>
   </si>
   <si>
@@ -17346,6 +17346,9 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Jumlah kesaksian yang terlihat</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17379,7 +17382,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Daftar yang Dicentang</t>
+    <t>Daftar Diperiksa</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17442,7 +17445,7 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Atur preferensi captcha Anda dari </t>
+    <t xml:space="preserve">Siapkan preferensi captcha Anda dari </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
@@ -17475,13 +17478,13 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Kirim data formulir kontak ke penerima kustom saat dikirimkan</t>
+    <t>Kirim data formulir kontak ke penerima khusus saat dikirimkan</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gunakan pengaturan penerima kustom untuk formulir kontak saat ini.</t>
+    <t>Gunakan pengaturan penerima khusus untuk formulir kontak saat ini.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
@@ -17499,25 +17502,25 @@
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Balas otomatis pesan ke pengguna</t>
+    <t>Pesan balasan otomatis ke pengguna</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktifkan pesan tanggapan otomatis untuk pengguna</t>
+    <t>Aktifkan pesan respons otomatis ke pengguna</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Izinkan pengguna menerima "Email terima kasih setelah berlangganan".</t>
+    <t>Izinkan pengguna untuk menerima "Terima kasih email setelah berlangganan."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Subjek tanggapan otomatis</t>
+    <t>Subjek respons otomatis</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
@@ -17526,7 +17529,7 @@
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Pesan tanggapan otomatis</t>
+    <t>Pesan balasan otomatis</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
@@ -17538,61 +17541,58 @@
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Jawab otomatis pengirim kustom</t>
+    <t>Jawab otomatis pengirim khusus</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gunakan pengaturan pengirim kustom untuk formulir kontak saat ini.</t>
+    <t>Gunakan pengaturan pengirim khusus untuk formulir kontak saat ini.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Balas otomatis dari alamat email</t>
+    <t>Respons otomatis dari alamat email</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Respon otomatis dari nama</t>
+    <t>Respons otomatis dari nama</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Balas email secara otomatis</t>
+    <t>Balas balasan otomatis ke email</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Ketika pengguna menerima pesan tanggapan otomatis, mereka dapat membalas kembali untuk membalas email.</t>
+    <t>Ketika pengguna menerima pesan respons otomatis, mereka dapat merespons kembali untuk membalas email.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Balas otomatis lampiran email</t>
+    <t>Tanggapi lampiran email secara otomatis</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>Jika Anda ingin melampirkan gambar, Anda harus mengunggahnya ke galeri dari 'Tambahkan media'</t>
-  </si>
-  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Anda belum memiliki postingan apa pun</t>
+    <t>Anda belum memiliki pos apa pun</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Buat postingan pertama Anda sekarang.</t>
+    <t>Buat posting pertama Anda sekarang.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17613,17 +17613,74 @@
   </si>
   <si>
     <t>Cara menulis deskripsi produk yang menjual
-                                                    Salah satu hal terbaik yang dapat Anda lakukan untuk membuat toko Anda sukses adalah menginvestasikan waktu untuk menulis deskripsi produk yang bagus. Anda ingin memberikan informasi rinci namun ringkas yang akan menarik calon pelanggan untuk membeli.
-                                                    Berpikirlah seperti konsumen
-                                                    Pikirkan tentang apa yang ingin Anda ketahui sebagai konsumen, kemudian sertakan fitur tersebut dalam deskripsi Anda. Untuk pakaian: bahan dan fit. Untuk makanan: bahan dan cara menyiapkannya. Peluru adalah teman Anda saat mencantumkan fitur
-                                                   - coba untuk
+                                                    Salah satu hal terbaik yang dapat Anda lakukan untuk membuat toko Anda sukses adalah menginvestasikan waktu untuk menulis deskripsi produk yang bagus. Anda ingin memberikan informasi yang terperinci namun ringkas yang akan menarik pelanggan potensial untuk membeli.
+                                                    Berpikir seperti konsumen
+                                                    Pikirkan tentang apa yang ingin Anda ketahui sebagai konsumen, lalu sertakan fitur tersebut dalam deskripsi Anda. Untuk pakaian: bahan dan pas. Untuk makanan: bahan dan cara pembuatannya. Peluru adalah teman Anda saat mencantumkan fitur
+                                                   — coba
                                                             batasi masing-masing hingga 5-8 kata.</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>bahasa admin</t>
+    <t>Bahasa admin</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Tambahkan postingan</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Tambahkan subhalaman</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori dihapus</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Konten dihapus</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Cari kategori</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Buat konten</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kartu</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Setiap</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Des</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
   </si>
   <si>
     <t>Limit</t>
@@ -17632,331 +17689,217 @@
     <t>Membatasi</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Anda tidak memiliki produk apa pun di dalamnya</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Kembali ke</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Bidang khusus disimpan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bidang yang ada</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Pilih dari bidang yang ada di bawah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tambahkan bidang baru</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tambahkan bidang khusus baru dari daftar di bawah</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>bidang Anda</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Daftar bidang khusus yang Anda tambahkan</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Saham</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Pengalihan Peramban</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasi</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Alat Ekspor Impor</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Updater mandiri</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Paket pratinjau</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Menggunakan</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Saat ini</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Cepat</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Kelas utama</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klik &amp; Kumpulkan</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Latar Belakang Video</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Anda dapat mengaktifkan modul Multi-bahasa untuk menggunakan beberapa bahasa</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modus multi bahasa</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktifkan mode multi-bahasa untuk memiliki beberapa bahasa untuk konten Anda.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Terjemahan diimpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjemahan tidak ditemukan dalam basis data. Apakah Anda ingin mengimpor terjemahan? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Keranjang Anda kosong.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor Kode</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Judul 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Judul 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Judul 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Judul 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Judul 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Judul 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Judul 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Judul 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>blok teks</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blok teks 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blok teks 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blok teks 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blok teks 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blok teks 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blok teks 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blok teks 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blok teks 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blok teks 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blok teks 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blok teks 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blok teks 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blok teks 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blok teks 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blok teks 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>kisi-kisi</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - kulit-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - kulit-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - kulit-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - kulit-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - kulit-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>catatan kaki</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Catatan kaki 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Catatan kaki 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Footer 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Catatan kaki 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>lainnya</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Harga 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Tata letak default</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Tidak Ada Konten Di Sini</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Bidang khusus disimpan</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Bidang yang ada</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Pilih dari bidang Anda yang ada di bawah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tambahkan bidang baru</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Tambahkan bidang khusus baru dari daftar di bawah</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Bidang Anda</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Daftar bidang khusus yang Anda tambahkan</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>impor baru</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">ulangi secara vertikal </t>
+    <t xml:space="preserve">ulang secara vertikal </t>
   </si>
   <si>
     <t>Font Family</t>
   </si>
   <si>
-    <t>Keluarga Font</t>
+    <t>Keluarga Fon</t>
   </si>
   <si>
     <t>Overlay</t>
@@ -17986,505 +17929,13 @@
     <t>Animations</t>
   </si>
   <si>
-    <t>animasi</t>
+    <t>Animasi</t>
   </si>
   <si>
     <t>Reloading styles</t>
   </si>
   <si>
     <t>Memuat ulang gaya</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Tautan ke</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Paket pratinjau</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Menggunakan</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Saat ini</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Susun ulang</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Pengalihan Peramban</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrasi</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Pembaruan Mandiri</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Anda memerlukan kunci lisensi untuk menginstal paket ini</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Paket ini premium dan Anda harus memiliki kunci lisensi untuk menginstalnya</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Anda memerlukan kunci lisensi</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lisensi diaktifkan</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Memuat ulang halaman</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lisensi tidak diaktifkan</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Pembaruan sistem</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Periksa pembaruan sistem</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Kembali ke daftar</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategori harus memiliki nama</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Apakah kategori disembunyikan?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Jika Anda menyetel ini ke YA, kategori ini akan disembunyikan dari situs web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Menyebutkan</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Keranjang Anda kosong.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Hasil ditemukan</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Jika Anda memilih Persen dari kolom pilih, maka akan dihitung secara otomatis dari Harga dan harga Penawaran produk.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>أضف منع</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Lanjutkan ke pembayaran</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Λحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Menampilkan</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>hasil</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Judul Halaman - Breadcrumb Kanan</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Judul Halaman - Breadcrumb Kiri</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Syarat Penggunaan</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Pengiriman dan pengembalian</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>sekitar 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Tentang 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Tentang 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Rumah 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Rumah 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Anda harus mengklik tombol terapkan template untuk mengubah template Anda</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Cari berdasarkan kriteria</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Tanggal dari</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Atur pesanan dari tanggal</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Tanggal ke</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Tetapkan pesanan hingga saat ini</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Jumlah pesanan dari</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Tunjukkan pesanan dengan jumlah minimum</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Jumlah pesanan ke</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Tunjukkan pesanan dengan jumlah maksimum</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Cari berdasarkan produk...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Cari berdasarkan produk</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status pembayaran</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Pencarian gratis melalui telepon, nama, email dll...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Kirimkan kriteria ini</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Setel ulang filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Ekspor semua</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Pilih penyortiran</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Tanggal pemesanan</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Baru &gt; Lama]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Lama &gt; Baru]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Tinggi &gt; Rendah]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Rendah &gt; Tinggi]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>terjemahan dari modul multibahasa telah ditemukan di database Anda.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Peringatan! Mengubah bahasa default dapat merusak terjemahan di situs Anda.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Apakah Anda yakin ingin melanjutkan?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Peringatan! Perubahan bahasa default mungkin akan merusak situs Anda.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Rincian pengiriman</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Jenis pengiriman</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>pesanan belum selesai</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>pesanan selesai</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Dibuat di</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lihat sekilas </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Ganti nilai bahasa</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Terjemahan diimpor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terjemahan tidak ditemukan dalam database. Apakah Anda ingin mengimpor terjemahan? </t>
   </si>
 </sst>
 </file>
@@ -18820,7 +18271,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69210,7 +68661,7 @@
         <v>5671</v>
       </c>
       <c r="D2964" t="s">
-        <v>5672</v>
+        <v>1375</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69224,10 +68675,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5672</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5673</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5674</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69241,10 +68692,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5675</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5676</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69258,10 +68709,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5677</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5678</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69275,10 +68726,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5679</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5680</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69292,10 +68743,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5681</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5682</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69309,10 +68760,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5683</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5684</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69326,10 +68777,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5685</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5686</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69343,10 +68794,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5687</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5688</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69360,10 +68811,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5689</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5690</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69377,10 +68828,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5691</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5692</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69394,10 +68845,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5693</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5694</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69411,10 +68862,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5695</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5696</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69428,10 +68879,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5697</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5698</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69445,10 +68896,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5699</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5700</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69462,10 +68913,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5701</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5702</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69479,10 +68930,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5703</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5704</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69496,10 +68947,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5705</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5706</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69513,10 +68964,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5707</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5708</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69530,10 +68981,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5709</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>5710</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69547,10 +68998,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2984" t="s">
         <v>5711</v>
-      </c>
-      <c r="D2984" t="s">
-        <v>5712</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69564,10 +69015,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2985" t="s">
         <v>5713</v>
-      </c>
-      <c r="D2985" t="s">
-        <v>5714</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69581,10 +69032,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2986" t="s">
         <v>5715</v>
-      </c>
-      <c r="D2986" t="s">
-        <v>5716</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69598,10 +69049,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2987" t="s">
         <v>5717</v>
-      </c>
-      <c r="D2987" t="s">
-        <v>5718</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69615,10 +69066,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2988" t="s">
         <v>5719</v>
-      </c>
-      <c r="D2988" t="s">
-        <v>5720</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69632,10 +69083,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2989" t="s">
         <v>5721</v>
-      </c>
-      <c r="D2989" t="s">
-        <v>5722</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69649,10 +69100,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2990" t="s">
         <v>5723</v>
-      </c>
-      <c r="D2990" t="s">
-        <v>5724</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69666,10 +69117,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2991" t="s">
         <v>5725</v>
-      </c>
-      <c r="D2991" t="s">
-        <v>5726</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69683,10 +69134,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2992" t="s">
         <v>5727</v>
-      </c>
-      <c r="D2992" t="s">
-        <v>5728</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69700,10 +69151,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2993" t="s">
         <v>5729</v>
-      </c>
-      <c r="D2993" t="s">
-        <v>5730</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69717,10 +69168,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2994" t="s">
         <v>5731</v>
-      </c>
-      <c r="D2994" t="s">
-        <v>5732</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69734,10 +69185,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2995" t="s">
         <v>5733</v>
-      </c>
-      <c r="D2995" t="s">
-        <v>5734</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69751,10 +69202,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2996" t="s">
         <v>5735</v>
-      </c>
-      <c r="D2996" t="s">
-        <v>5736</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69768,10 +69219,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2997" t="s">
         <v>5737</v>
-      </c>
-      <c r="D2997" t="s">
-        <v>5738</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69785,10 +69236,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2998" t="s">
         <v>5739</v>
-      </c>
-      <c r="D2998" t="s">
-        <v>5740</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69802,10 +69253,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2999" t="s">
         <v>5741</v>
-      </c>
-      <c r="D2999" t="s">
-        <v>5742</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69819,10 +69270,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D3000" t="s">
         <v>5743</v>
-      </c>
-      <c r="D3000" t="s">
-        <v>5744</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69836,10 +69287,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3001" t="s">
         <v>5745</v>
-      </c>
-      <c r="D3001" t="s">
-        <v>5746</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69853,10 +69304,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D3002" t="s">
         <v>5747</v>
-      </c>
-      <c r="D3002" t="s">
-        <v>5748</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69870,10 +69321,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D3003" t="s">
         <v>5749</v>
-      </c>
-      <c r="D3003" t="s">
-        <v>5750</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69887,10 +69338,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3004" t="s">
         <v>5751</v>
-      </c>
-      <c r="D3004" t="s">
-        <v>5752</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69904,10 +69355,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D3005" t="s">
         <v>5753</v>
-      </c>
-      <c r="D3005" t="s">
-        <v>5754</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69921,10 +69372,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3006" t="s">
         <v>5755</v>
-      </c>
-      <c r="D3006" t="s">
-        <v>5756</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69938,10 +69389,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3007" t="s">
         <v>5757</v>
-      </c>
-      <c r="D3007" t="s">
-        <v>5758</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69955,10 +69406,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3008" t="s">
         <v>5759</v>
-      </c>
-      <c r="D3008" t="s">
-        <v>5760</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69972,7 +69423,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="D3009" t="s">
         <v>3188</v>
@@ -69989,10 +69440,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5762</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5763</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70006,10 +69457,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5764</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5765</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70023,10 +69474,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="D3012" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70040,7 +69491,7 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="D3013" t="s">
         <v>5767</v>
@@ -70111,7 +69562,7 @@
         <v>5774</v>
       </c>
       <c r="D3017" t="s">
-        <v>3284</v>
+        <v>5775</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70125,10 +69576,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="D3018" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70142,10 +69593,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="D3019" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70159,10 +69610,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="D3020" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70176,10 +69627,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="D3021" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70193,10 +69644,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="D3022" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70210,10 +69661,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="D3023" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70227,10 +69678,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="D3024" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70244,10 +69695,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="D3025" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70261,10 +69712,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="D3026" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70278,10 +69729,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="D3027" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70295,10 +69746,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3028" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70312,10 +69763,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D3029" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70329,10 +69780,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="D3030" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70346,7 +69797,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="D3031" t="s">
         <v>1106</v>
@@ -70363,10 +69814,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3032" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70380,10 +69831,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3033" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70397,10 +69848,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3034" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70414,7 +69865,7 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3035" t="s">
         <v>4906</v>
@@ -70431,10 +69882,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="D3036" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70448,10 +69899,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="D3037" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70465,10 +69916,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="D3038" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70482,10 +69933,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
       <c r="D3039" t="s">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70499,10 +69950,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="D3040" t="s">
-        <v>5818</v>
+        <v>5819</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70516,10 +69967,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="D3041" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70533,10 +69984,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="D3042" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70550,10 +70001,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5823</v>
+        <v>5824</v>
       </c>
       <c r="D3043" t="s">
-        <v>5824</v>
+        <v>5825</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70567,10 +70018,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5825</v>
+        <v>5826</v>
       </c>
       <c r="D3044" t="s">
-        <v>5826</v>
+        <v>5827</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70584,10 +70035,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5827</v>
+        <v>5828</v>
       </c>
       <c r="D3045" t="s">
-        <v>5828</v>
+        <v>5829</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70601,10 +70052,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5829</v>
+        <v>5830</v>
       </c>
       <c r="D3046" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70618,10 +70069,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D3047" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70635,7 +70086,7 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="D3048" t="s">
         <v>3089</v>
@@ -70652,10 +70103,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="D3049" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70669,10 +70120,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="D3050" t="s">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70686,10 +70137,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="D3051" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70703,10 +70154,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
       <c r="D3052" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70720,10 +70171,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="D3053" t="s">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70737,10 +70188,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5844</v>
+        <v>5845</v>
       </c>
       <c r="D3054" t="s">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70754,10 +70205,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5846</v>
+        <v>5847</v>
       </c>
       <c r="D3055" t="s">
-        <v>5847</v>
+        <v>5848</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70771,10 +70222,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D3056" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70788,10 +70239,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="D3057" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70805,10 +70256,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="D3058" t="s">
-        <v>5853</v>
+        <v>4188</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70944,7 +70395,7 @@
         <v>5869</v>
       </c>
       <c r="D3066" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70958,10 +70409,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="D3067" t="s">
-        <v>4178</v>
+        <v>5872</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70975,10 +70426,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5871</v>
+        <v>5873</v>
       </c>
       <c r="D3068" t="s">
-        <v>5872</v>
+        <v>5874</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70992,10 +70443,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5873</v>
+        <v>5875</v>
       </c>
       <c r="D3069" t="s">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71009,10 +70460,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="D3070" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71026,10 +70477,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="D3071" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71043,10 +70494,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5879</v>
+        <v>5881</v>
       </c>
       <c r="D3072" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71060,10 +70511,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="D3073" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71077,10 +70528,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D3074" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71094,10 +70545,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="D3075" t="s">
-        <v>5886</v>
+        <v>1627</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71148,7 +70599,7 @@
         <v>5891</v>
       </c>
       <c r="D3078" t="s">
-        <v>5892</v>
+        <v>4516</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71162,10 +70613,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3079" t="s">
         <v>5893</v>
-      </c>
-      <c r="D3079" t="s">
-        <v>5894</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71179,10 +70630,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3080" t="s">
         <v>5895</v>
-      </c>
-      <c r="D3080" t="s">
-        <v>5896</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71196,10 +70647,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3081" t="s">
         <v>5897</v>
-      </c>
-      <c r="D3081" t="s">
-        <v>5898</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71213,10 +70664,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3082" t="s">
         <v>5899</v>
-      </c>
-      <c r="D3082" t="s">
-        <v>5900</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71230,10 +70681,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3083" t="s">
         <v>5901</v>
-      </c>
-      <c r="D3083" t="s">
-        <v>5902</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71247,10 +70698,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3084" t="s">
         <v>5903</v>
-      </c>
-      <c r="D3084" t="s">
-        <v>5904</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71264,10 +70715,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3085" t="s">
         <v>5905</v>
-      </c>
-      <c r="D3085" t="s">
-        <v>5906</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71281,10 +70732,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3086" t="s">
         <v>5907</v>
-      </c>
-      <c r="D3086" t="s">
-        <v>5908</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71298,10 +70749,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3087" t="s">
         <v>5909</v>
-      </c>
-      <c r="D3087" t="s">
-        <v>5910</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71315,10 +70766,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
       <c r="D3088" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71332,10 +70783,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="D3089" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71349,10 +70800,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="D3090" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71366,10 +70817,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="D3091" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71383,10 +70834,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="D3092" t="s">
-        <v>1884</v>
+        <v>5918</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71400,10 +70851,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3093" t="s">
         <v>5920</v>
-      </c>
-      <c r="D3093" t="s">
-        <v>5323</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71420,7 +70871,7 @@
         <v>5921</v>
       </c>
       <c r="D3094" t="s">
-        <v>5325</v>
+        <v>5921</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71437,7 +70888,7 @@
         <v>5922</v>
       </c>
       <c r="D3095" t="s">
-        <v>5327</v>
+        <v>5923</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71451,10 +70902,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5923</v>
+        <v>5924</v>
       </c>
       <c r="D3096" t="s">
-        <v>5329</v>
+        <v>5925</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71468,10 +70919,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5924</v>
+        <v>5926</v>
       </c>
       <c r="D3097" t="s">
-        <v>5925</v>
+        <v>5927</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71485,10 +70936,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5926</v>
+        <v>5928</v>
       </c>
       <c r="D3098" t="s">
-        <v>2183</v>
+        <v>5929</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71502,10 +70953,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="D3099" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71519,10 +70970,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="D3100" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71536,10 +70987,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
       <c r="D3101" t="s">
-        <v>5932</v>
+        <v>1489</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71553,10 +71004,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5933</v>
+        <v>5935</v>
       </c>
       <c r="D3102" t="s">
-        <v>5934</v>
+        <v>5936</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71570,10 +71021,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5935</v>
+        <v>5937</v>
       </c>
       <c r="D3103" t="s">
-        <v>5936</v>
+        <v>5938</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71587,10 +71038,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5937</v>
+        <v>5939</v>
       </c>
       <c r="D3104" t="s">
-        <v>5938</v>
+        <v>5940</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71604,10 +71055,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5939</v>
+        <v>5941</v>
       </c>
       <c r="D3105" t="s">
-        <v>5940</v>
+        <v>5942</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71621,10 +71072,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5941</v>
+        <v>5943</v>
       </c>
       <c r="D3106" t="s">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71638,10 +71089,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="D3107" t="s">
-        <v>5944</v>
+        <v>5946</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71655,10 +71106,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="D3108" t="s">
-        <v>5946</v>
+        <v>5948</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71671,11 +71122,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5948</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71688,11 +71139,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5950</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71706,10 +71157,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="D3111" t="s">
-        <v>5949</v>
+        <v>5952</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71723,10 +71174,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5950</v>
+        <v>5953</v>
       </c>
       <c r="D3112" t="s">
-        <v>5950</v>
+        <v>5954</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71740,10 +71191,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5951</v>
+        <v>5955</v>
       </c>
       <c r="D3113" t="s">
-        <v>4549</v>
+        <v>5956</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71757,10 +71208,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5952</v>
+        <v>5957</v>
       </c>
       <c r="D3114" t="s">
-        <v>5953</v>
+        <v>5958</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71774,10 +71225,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5954</v>
+        <v>5959</v>
       </c>
       <c r="D3115" t="s">
-        <v>5955</v>
+        <v>5960</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71791,10 +71242,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5956</v>
+        <v>5961</v>
       </c>
       <c r="D3116" t="s">
-        <v>5957</v>
+        <v>5962</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71808,10 +71259,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5958</v>
+        <v>5963</v>
       </c>
       <c r="D3117" t="s">
-        <v>5959</v>
+        <v>5964</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71825,10 +71276,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5960</v>
+        <v>5965</v>
       </c>
       <c r="D3118" t="s">
-        <v>5961</v>
+        <v>5966</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71842,1678 +71293,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5962</v>
+        <v>5967</v>
       </c>
       <c r="D3119" t="s">
-        <v>5963</v>
+        <v>5968</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5964</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5965</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5969</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5971</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5973</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5974</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6032</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5860</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6043</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6043</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3751</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2200</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
